--- a/BaoCao_SystemTest_Register.xlsx
+++ b/BaoCao_SystemTest_Register.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -41,40 +41,97 @@
     <t>Đăng ký trùng tên đăng nhập</t>
   </si>
   <si>
-    <t>1. Nhập username 'admin' (đã tồn tại)
+    <t>1. Nhập user 'admin' (đã tồn tại)
 2. Click Đăng ký
-3. Check lỗi hiển thị</t>
-  </si>
-  <si>
-    <t>User: admin (đã có trong DB)</t>
-  </si>
-  <si>
-    <t>Ở lại trang Register &amp; Hiện lỗi 'Tên đăng nhập đã tồn tại'</t>
-  </si>
-  <si>
-    <t>URL: Register.jsp | Lỗi: ⚠️ Tên đăng nhập đã tồn tại!</t>
+3. Check lỗi</t>
+  </si>
+  <si>
+    <t>User: admin</t>
+  </si>
+  <si>
+    <t>Ở lại trang Register.jsp &amp; Hiện lỗi 'đã tồn tại' (hoặc tương tự)</t>
+  </si>
+  <si>
+    <t>Lỗi hiển thị: Tên đăng nhập đã tồn tại!</t>
   </si>
   <si>
     <t>PASS</t>
   </si>
   <si>
+    <t>ST_REG_05</t>
+  </si>
+  <si>
+    <t>Email không đúng định dạng</t>
+  </si>
+  <si>
+    <t>1. Nhập email 'abc' (thiếu @)
+2. Click Đăng ký
+3. Check URL</t>
+  </si>
+  <si>
+    <t>Email: email_nay_sai_dinh_dang</t>
+  </si>
+  <si>
+    <t>Vẫn ở trang Register.jsp (Trình duyệt chặn submit)</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8080/ShopDuck/user/auth/Register.jsp</t>
+  </si>
+  <si>
     <t>ST_REG_03</t>
   </si>
   <si>
+    <t>Đăng ký mật khẩu yếu (&lt; 6 ký tự)</t>
+  </si>
+  <si>
+    <t>1. Nhập pass '123' (quá ngắn)
+2. Click Đăng ký
+3. Check lỗi</t>
+  </si>
+  <si>
+    <t>Pass: 123</t>
+  </si>
+  <si>
+    <t>Ở lại trang &amp; Hiện lỗi 'Mật khẩu quá yếu' (hoặc tương tự: &lt; 6 ký tự)</t>
+  </si>
+  <si>
+    <t>Lỗi hiển thị: Mật khẩu quá yếu! Vui lòng nhập ít nhất 6 ký tự.</t>
+  </si>
+  <si>
+    <t>ST_REG_04</t>
+  </si>
+  <si>
     <t>Bỏ trống trường bắt buộc</t>
   </si>
   <si>
-    <t>1. Không nhập gì cả
-2. Click Đăng ký</t>
-  </si>
-  <si>
-    <t>Dữ liệu rỗng</t>
-  </si>
-  <si>
-    <t>Trình duyệt chặn submit (URL không đổi)</t>
-  </si>
-  <si>
-    <t>URL hiện tại: http://localhost:8080/ShopDuck/user/auth/Register.jsp</t>
+    <t>1. Không nhập gì
+2. Click Đăng ký
+3. Check URL</t>
+  </si>
+  <si>
+    <t>Input: Rỗng</t>
+  </si>
+  <si>
+    <t>Ở lại trang Register.jsp (Trình duyệt chặn submit)</t>
+  </si>
+  <si>
+    <t>ST_REG_06</t>
+  </si>
+  <si>
+    <t>Click link 'Đăng nhập'</t>
+  </si>
+  <si>
+    <t>1. Tại trang ĐK, click link 'Đăng nhập'
+2. Check chuyển trang</t>
+  </si>
+  <si>
+    <t>Action: Click Link</t>
+  </si>
+  <si>
+    <t>Chuyển sang Login.jsp</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8080/ShopDuck/user/auth/Login.jsp</t>
   </si>
   <si>
     <t>ST_REG_01</t>
@@ -83,18 +140,18 @@
     <t>Đăng ký thành công (User mới)</t>
   </si>
   <si>
-    <t>1. Nhập full thông tin hợp lệ
+    <t>1. Nhập full thông tin hợp lệ (unique)
 2. Click Đăng ký
-3. Check URL chuyển về Login</t>
-  </si>
-  <si>
-    <t>User: user_1764752002956, Pass: 123456</t>
-  </si>
-  <si>
-    <t>Chuyển hướng đến trang Login.jsp</t>
-  </si>
-  <si>
-    <t>URL hiện tại: http://localhost:8080/ShopDuck/user/auth/Login.jsp</t>
+3. Check chuyển hướng và thông báo</t>
+  </si>
+  <si>
+    <t>User: user_1764923073099</t>
+  </si>
+  <si>
+    <t>Chuyển về Login.jsp &amp; Hiện thông báo Success</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8080/ShopDuck/user/auth/Login.jsp | Msg: Đăng ký thành công! Vui lòng đăng nhập.</t>
   </si>
 </sst>
 </file>
@@ -172,18 +229,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="11.19921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.6796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="34.96484375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="51.328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="62.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.39453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="34.1953125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="30.31640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="60.83984375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="96.55078125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -279,6 +336,75 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
